--- a/data/event_es.xlsx
+++ b/data/event_es.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98832D05-53C4-4793-AD81-2BD41DE25503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B601F-2884-40AE-A732-AB677668E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>what</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Presidente del Comité Organizador</t>
+  </si>
+  <si>
+    <t>Mar. 5, 2025</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>Conferencia Internacional Prevención de la Perpetración de Abuso Sexual: Perspectivas y Desafíos desde la Salud Pública</t>
+  </si>
+  <si>
+    <t>\href{https://www.youtube.com/watch?v=dNqxY_fGKwE}{Universidad El Bosque}</t>
   </si>
 </sst>
 </file>
@@ -120,9 +132,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -131,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -218,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,46 +559,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -637,10 +660,11 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
@@ -654,6 +678,12 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
